--- a/unc.xlsx
+++ b/unc.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9110" uniqueCount="3271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9144" uniqueCount="3272">
   <si>
     <t xml:space="preserve">Номер расценок </t>
   </si>
@@ -9829,6 +9829,9 @@
   </si>
   <si>
     <t>6-15</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -9865,11 +9868,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -10172,15 +10177,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A4:Q1762"/>
+  <dimension ref="A4:V1762"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="M82" sqref="M82"/>
+    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="K163" sqref="K163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" width="64" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -11309,7 +11314,7 @@
         <v>115</v>
       </c>
       <c r="K58" t="str">
-        <f t="shared" ref="K58:K65" si="3">CONCATENATE("'",A58,"'",", ","'",B58,"'",", ","'",C58,"'",", ","'",D58,"'",", ","'",E58,"'",", ","'",F58,"'")</f>
+        <f t="shared" ref="K58:K63" si="3">CONCATENATE("'",A58,"'",", ","'",B58,"'",", ","'",C58,"'",", ","'",D58,"'",", ","'",E58,"'",", ","'",F58,"'")</f>
         <v>'В4-02 - 1..3 ', '220(150) ', '2000', '88 743 ', '92 417 ', '97 315 '</v>
       </c>
     </row>
@@ -11803,7 +11808,7 @@
         <v>170</v>
       </c>
       <c r="K89" t="str">
-        <f t="shared" ref="K89:K90" si="7">CONCATENATE("'",A89,"'",", ","'",B89,"'",", ","'",C89,"'")</f>
+        <f t="shared" ref="K89" si="7">CONCATENATE("'",A89,"'",", ","'",B89,"'",", ","'",C89,"'")</f>
         <v>'Д3-02', '330 - 750', '1 241'</v>
       </c>
     </row>
@@ -11817,8 +11822,30 @@
       <c r="C91" t="s">
         <v>3</v>
       </c>
+      <c r="D91" t="s">
+        <v>3271</v>
+      </c>
+      <c r="E91" t="s">
+        <v>3271</v>
+      </c>
+      <c r="F91" t="s">
+        <v>3271</v>
+      </c>
+      <c r="G91" t="s">
+        <v>3271</v>
+      </c>
+      <c r="K91" t="str">
+        <f>CONCATENATE("'",A91,"'",", ","'",B91,"'",", ","'",C91,"'",", ","'",D91,"'",", ","'",E91,"'",", ","'",F91,"'","'",G91,"'")</f>
+        <v>'Номер расценок ', 'Мощность, МВА ', 'Норматив цены для отдельных элементов в составе расценки ', '-', '-', '-''-'</v>
+      </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>3271</v>
+      </c>
+      <c r="B92" t="s">
+        <v>3271</v>
+      </c>
       <c r="C92">
         <v>1</v>
       </c>
@@ -11831,13 +11858,33 @@
       <c r="F92">
         <v>4</v>
       </c>
+      <c r="K92" t="str">
+        <f t="shared" ref="K92:K120" si="8">CONCATENATE("'",A92,"'",", ","'",B92,"'",", ","'",C92,"'",", ","'",D92,"'",", ","'",E92,"'",", ","'",F92,"'","'",G92,"'")</f>
+        <v>'-', '-', '1', '2', '3', '4'''</v>
+      </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>3271</v>
+      </c>
+      <c r="B93" t="s">
+        <v>3271</v>
+      </c>
       <c r="C93" t="s">
         <v>172</v>
       </c>
+      <c r="K93" t="str">
+        <f t="shared" si="8"/>
+        <v>'-', '-', 'Обозначение трехобмоточного трансформатора, напряжение, кВ ', '', '', ''''</v>
+      </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>3271</v>
+      </c>
+      <c r="B94" t="s">
+        <v>3271</v>
+      </c>
       <c r="C94" t="s">
         <v>173</v>
       </c>
@@ -11849,6 +11896,10 @@
       </c>
       <c r="F94" t="s">
         <v>176</v>
+      </c>
+      <c r="K94" t="str">
+        <f t="shared" si="8"/>
+        <v>'-', '-', 'Т 110/35/НН &lt;*&gt; ', 'Т 150/35/НН ', 'Т 220/35(20, 110)/НН ', 'Т 500/110/НН '''</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -11868,7 +11919,11 @@
         <v>180</v>
       </c>
       <c r="F95" t="s">
-        <v>180</v>
+        <v>3271</v>
+      </c>
+      <c r="K95" t="str">
+        <f t="shared" si="8"/>
+        <v>'Т1-01 - 1..4 ', '6,3 ', '32 118 ', '- ', '- ', '-'''</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -11888,10 +11943,14 @@
         <v>183</v>
       </c>
       <c r="F96" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3271</v>
+      </c>
+      <c r="K96" t="str">
+        <f>CONCATENATE("'",A96,"'",", ","'",B96,"'",", ","'",C96,"'",", ","'",D96,"'",", ","'",E96,"'",", ","'",F96,"'")</f>
+        <v>'Т1-02 - 1..4 ', '10', '37 578 ', '- ', '47 558 ', '-'</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>184</v>
       </c>
@@ -11908,10 +11967,14 @@
         <v>180</v>
       </c>
       <c r="F97" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3271</v>
+      </c>
+      <c r="K97" t="str">
+        <f t="shared" ref="K97:K107" si="9">CONCATENATE("'",A97,"'",", ","'",B97,"'",", ","'",C97,"'",", ","'",D97,"'",", ","'",E97,"'",", ","'",F97,"'")</f>
+        <v>'Т1-03 - 1..4 ', '16', '50 105 ', '50 105 ', '- ', '-'</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>186</v>
       </c>
@@ -11928,10 +11991,14 @@
         <v>189</v>
       </c>
       <c r="F98" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3271</v>
+      </c>
+      <c r="K98" t="str">
+        <f t="shared" si="9"/>
+        <v>'Т1-04 - 1..4 ', '25', '51 394 ', '70 277 ', '80 036 ', '-'</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>190</v>
       </c>
@@ -11948,10 +12015,14 @@
         <v>193</v>
       </c>
       <c r="F99" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3271</v>
+      </c>
+      <c r="K99" t="str">
+        <f t="shared" si="9"/>
+        <v>'Т1-05 - 1..4 ', '32', '54 158 ', '77 270 ', '96 174 ', '-'</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>194</v>
       </c>
@@ -11968,10 +12039,14 @@
         <v>196</v>
       </c>
       <c r="F100" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3271</v>
+      </c>
+      <c r="K100" t="str">
+        <f t="shared" si="9"/>
+        <v>'Т1-06 - 1..4 ', '40', '54 158 ', '95 828 ', '109 622 ', '-'</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>197</v>
       </c>
@@ -11988,10 +12063,14 @@
         <v>200</v>
       </c>
       <c r="F101" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3271</v>
+      </c>
+      <c r="K101" t="str">
+        <f t="shared" si="9"/>
+        <v>'Т1-07 - 1..4 ', '63', '69 356 ', '115 424 ', '119 804 ', '-'</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>201</v>
       </c>
@@ -12008,10 +12087,14 @@
         <v>203</v>
       </c>
       <c r="F102" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3271</v>
+      </c>
+      <c r="K102" t="str">
+        <f t="shared" si="9"/>
+        <v>'Т1-08 - 1..4 ', '80', '143 578 ', '- ', '179 726 ', '-'</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>204</v>
       </c>
@@ -12028,10 +12111,14 @@
         <v>207</v>
       </c>
       <c r="F103" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3271</v>
+      </c>
+      <c r="K103" t="str">
+        <f t="shared" si="9"/>
+        <v>'Т1-09 - 1..4 ', '100', '175 859 ', '189 788 ', '193 654 ', '-'</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>208</v>
       </c>
@@ -12048,10 +12135,14 @@
         <v>209</v>
       </c>
       <c r="F104" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3271</v>
+      </c>
+      <c r="K104" t="str">
+        <f t="shared" si="9"/>
+        <v>'Т1-10 - 1..4 ', '125', '- ', '- ', '246 837 ', '-'</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>210</v>
       </c>
@@ -12068,10 +12159,14 @@
         <v>180</v>
       </c>
       <c r="F105" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3271</v>
+      </c>
+      <c r="K105" t="str">
+        <f t="shared" si="9"/>
+        <v>'Т1-11 - 1..4 ', '160', '192 654 ', '- ', '- ', '-'</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>212</v>
       </c>
@@ -12088,10 +12183,14 @@
         <v>213</v>
       </c>
       <c r="F106" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3271</v>
+      </c>
+      <c r="K106" t="str">
+        <f t="shared" si="9"/>
+        <v>'Т1-12 - 1..4 ', '200', '- ', '- ', '340 540 ', '-'</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>214</v>
       </c>
@@ -12110,8 +12209,12 @@
       <c r="F107" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K107" t="str">
+        <f t="shared" si="9"/>
+        <v>'Т1-13 - 1..4 ', '300', '- ', '- ', '- ', '396 411 '</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>0</v>
       </c>
@@ -12121,8 +12224,30 @@
       <c r="C109" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D109" t="s">
+        <v>3271</v>
+      </c>
+      <c r="E109" t="s">
+        <v>3271</v>
+      </c>
+      <c r="F109" t="s">
+        <v>3271</v>
+      </c>
+      <c r="G109" t="s">
+        <v>3271</v>
+      </c>
+      <c r="K109" t="str">
+        <f>CONCATENATE("'",A109,"'",", ","'",B109,"'",", ","'",C109,"'",", ","'",D109,"'",", ","'",E109,"'",", ","'",F109,"'",", ","'",G109,"'")</f>
+        <v>'Номер расценок ', 'Мощность, МВА ', 'Норматив цены для отдельных элементов в составе расценки ', '-', '-', '-', '-'</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>3271</v>
+      </c>
+      <c r="B110" t="s">
+        <v>3271</v>
+      </c>
       <c r="C110">
         <v>1</v>
       </c>
@@ -12138,13 +12263,33 @@
       <c r="G110">
         <v>5</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K110" t="str">
+        <f t="shared" ref="K110:K133" si="10">CONCATENATE("'",A110,"'",", ","'",B110,"'",", ","'",C110,"'",", ","'",D110,"'",", ","'",E110,"'",", ","'",F110,"'",", ","'",G110,"'")</f>
+        <v>'-', '-', '1', '2', '3', '4', '5'</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>3271</v>
+      </c>
+      <c r="B111" t="s">
+        <v>3271</v>
+      </c>
       <c r="C111" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K111" t="str">
+        <f t="shared" si="10"/>
+        <v>'-', '-', 'Обозначение автотрансформатора, напряжение, кВ ', '', '', '', ''</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>3271</v>
+      </c>
+      <c r="B112" t="s">
+        <v>3271</v>
+      </c>
       <c r="C112" t="s">
         <v>217</v>
       </c>
@@ -12160,8 +12305,12 @@
       <c r="G112" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K112" t="str">
+        <f t="shared" si="10"/>
+        <v>'-', '-', 'АТ 220(150)/110/НН ', 'АТ 330/110/НН ', 'АТ 330/150/НН ', 'АТ 330/220/НН ', 'АТ 500/220(110)/НН '</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>222</v>
       </c>
@@ -12183,8 +12332,12 @@
       <c r="G113" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K113" t="str">
+        <f t="shared" si="10"/>
+        <v>'Т2-01 - 1..5 ', '63', '131 765 ', '- ', '- ', '- ', '- '</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>224</v>
       </c>
@@ -12206,8 +12359,12 @@
       <c r="G114" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K114" t="str">
+        <f t="shared" si="10"/>
+        <v>'Т2-02 - 1..5 ', '80', '131 765 ', '- ', '- ', '- ', '- '</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>225</v>
       </c>
@@ -12229,8 +12386,12 @@
       <c r="G115" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K115" t="str">
+        <f t="shared" si="10"/>
+        <v>'Т2-03 - 1..5 ', '100', '165 319 ', '- ', '- ', '- ', '- '</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>227</v>
       </c>
@@ -12252,8 +12413,12 @@
       <c r="G116" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K116" t="str">
+        <f t="shared" si="10"/>
+        <v>'Т2-04 - 1..5 ', '125', '165 319 ', '213 506 ', '- ', '- ', '- '</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>229</v>
       </c>
@@ -12275,8 +12440,12 @@
       <c r="G117" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K117" t="str">
+        <f t="shared" si="10"/>
+        <v>'Т2-05 - 1..5 ', '150', '187 689 ', '225 524 ', '- ', '- ', '- '</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>232</v>
       </c>
@@ -12298,8 +12467,12 @@
       <c r="G118" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K118" t="str">
+        <f t="shared" si="10"/>
+        <v>'Т2-06 - 1..5 ', '200', '187 689 ', '237 541 ', '242 973 ', '- ', '- '</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>235</v>
       </c>
@@ -12321,8 +12494,12 @@
       <c r="G119" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K119" t="str">
+        <f t="shared" si="10"/>
+        <v>'Т2-07 - 1..5 ', '250', '187 689 ', '263 977 ', '263 976 ', '267 780 ', '301 964 '</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>240</v>
       </c>
@@ -12344,8 +12521,12 @@
       <c r="G120" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K120" t="str">
+        <f t="shared" si="10"/>
+        <v>'Т2-08 - 1..5 ', '500', '- ', '- ', '- ', '- ', '384 105 '</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>0</v>
       </c>
@@ -12355,8 +12536,30 @@
       <c r="C122" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D122" t="s">
+        <v>3271</v>
+      </c>
+      <c r="E122" t="s">
+        <v>3271</v>
+      </c>
+      <c r="F122" t="s">
+        <v>3271</v>
+      </c>
+      <c r="G122" t="s">
+        <v>3271</v>
+      </c>
+      <c r="K122" t="str">
+        <f t="shared" si="10"/>
+        <v>'Номер расценок ', 'Мощность, МВА ', 'Норматив цены для отдельных элементов в составе расценки ', '-', '-', '-', '-'</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>3271</v>
+      </c>
+      <c r="B123" t="s">
+        <v>3271</v>
+      </c>
       <c r="C123">
         <v>1</v>
       </c>
@@ -12372,13 +12575,33 @@
       <c r="G123">
         <v>5</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K123" t="str">
+        <f t="shared" si="10"/>
+        <v>'-', '-', '1', '2', '3', '4', '5'</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>3271</v>
+      </c>
+      <c r="B124" t="s">
+        <v>3271</v>
+      </c>
       <c r="C124" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K124" t="str">
+        <f t="shared" si="10"/>
+        <v>'-', '-', 'Обозначение автотрансформатора, напряжение, кВ ', '', '', '', ''</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>3271</v>
+      </c>
+      <c r="B125" t="s">
+        <v>3271</v>
+      </c>
       <c r="C125" t="s">
         <v>220</v>
       </c>
@@ -12394,8 +12617,12 @@
       <c r="G125" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K125" t="str">
+        <f t="shared" si="10"/>
+        <v>'-', '-', 'АТ 330/220/НН ', 'АТ 500/110(220)/НН ', 'АТ 500/330/НН ', 'АТ 750/330/НН ', 'АТ 750/500/НН '</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>246</v>
       </c>
@@ -12417,8 +12644,12 @@
       <c r="G126" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K126" t="str">
+        <f t="shared" si="10"/>
+        <v>'Т3-01 - 1..5 ', '3 x 133 ', '465 145 ', '412 236 ', '- ', '- ', '- '</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>250</v>
       </c>
@@ -12440,8 +12671,12 @@
       <c r="G127" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K127" t="str">
+        <f t="shared" si="10"/>
+        <v>'Т3-02 - 1..5 ', '3 x 135(3 x 150) ', '- ', '463 910 ', '- ', '- ', '- '</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>253</v>
       </c>
@@ -12463,8 +12698,12 @@
       <c r="G128" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K128" t="str">
+        <f t="shared" si="10"/>
+        <v>'Т3-03 - 1..5 ', '3 x 167 ', '- ', '517311', '541 302 ', '- ', '- '</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>256</v>
       </c>
@@ -12486,8 +12725,12 @@
       <c r="G129" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K129" t="str">
+        <f t="shared" si="10"/>
+        <v>'Т3-04 - 1..5 ', '3 x 267(3 x 250) ', '- ', '603 042 ', '- ', '- ', '- '</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>259</v>
       </c>
@@ -12506,8 +12749,12 @@
       <c r="F130" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K130" t="str">
+        <f t="shared" si="10"/>
+        <v>'Т3-05 - 1..5 ', '3 x 333 ', '- ', '- ', '- ', '1 090 981 ', ''</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>262</v>
       </c>
@@ -12529,8 +12776,12 @@
       <c r="G131" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K131" t="str">
+        <f t="shared" si="10"/>
+        <v>'Т3-06 - 1..5 ', '3 x 417 ', '- ', '- ', '- ', '- ', '1 283 452 '</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>0</v>
       </c>
@@ -12540,8 +12791,27 @@
       <c r="C133" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D133" t="s">
+        <v>3271</v>
+      </c>
+      <c r="E133" t="s">
+        <v>3271</v>
+      </c>
+      <c r="F133" t="s">
+        <v>3271</v>
+      </c>
+      <c r="G133" t="s">
+        <v>3271</v>
+      </c>
+      <c r="H133" t="s">
+        <v>3271</v>
+      </c>
+      <c r="K133" t="str">
+        <f>CONCATENATE("'",A133,"'",", ","'",B133,"'",", ","'",C133,"'",", ","'",D133,"'",", ","'",E133,"'",", ","'",F133,"'",", ","'",G133,"'",", ","'",H133,"'")</f>
+        <v>'Номер расценок ', 'Мощность, МВА ', 'Норматив цены для отдельных элементов в составе расценки ', '-', '-', '-', '-', '-'</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C134">
         <v>1</v>
       </c>
@@ -12560,13 +12830,21 @@
       <c r="H134">
         <v>6</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K134" t="str">
+        <f t="shared" ref="K134:K158" si="11">CONCATENATE("'",A134,"'",", ","'",B134,"'",", ","'",C134,"'",", ","'",D134,"'",", ","'",E134,"'",", ","'",F134,"'",", ","'",G134,"'",", ","'",H134,"'")</f>
+        <v>'', '', '1', '2', '3', '4', '5', '6'</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C135" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K135" t="str">
+        <f t="shared" si="11"/>
+        <v>'', '', 'Обозначение двухобмоточного трансформатора, напряжение, кВ ', '', '', '', '', ''</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C136" t="s">
         <v>266</v>
       </c>
@@ -12585,8 +12863,12 @@
       <c r="H136" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K136" t="str">
+        <f t="shared" si="11"/>
+        <v>'', '', 'Т 35/НН ', 'Т 110/НН ', 'Т 150/НН ', 'Т 220/НН ', 'Т 330/НН ', 'Т 500/НН '</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>272</v>
       </c>
@@ -12611,8 +12893,12 @@
       <c r="H137" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K137" t="str">
+        <f t="shared" si="11"/>
+        <v>'Т4-01 - 1..6 ', '2', '12 774 ', '19 078 ', '- ', '- ', '- ', '- '</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>275</v>
       </c>
@@ -12637,8 +12923,12 @@
       <c r="H138" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K138" t="str">
+        <f t="shared" si="11"/>
+        <v>'Т4-02 - 1..6 ', '2,5 ', '12 774 ', '23 088 ', '- ', '- ', '- ', '- '</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>278</v>
       </c>
@@ -12663,8 +12953,12 @@
       <c r="H139" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K139" t="str">
+        <f t="shared" si="11"/>
+        <v>'Т4-03 - 1..6 ', '4', '12 906 ', '24 338 ', '- ', '- ', '- ', '- '</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>281</v>
       </c>
@@ -12689,8 +12983,12 @@
       <c r="H140" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K140" t="str">
+        <f t="shared" si="11"/>
+        <v>'Т4-04 - 1..6 ', '5', '13 695 ', '27 426 ', '- ', '34 096 ', '- ', '- '</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>285</v>
       </c>
@@ -12715,8 +13013,12 @@
       <c r="H141" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K141" t="str">
+        <f t="shared" si="11"/>
+        <v>'Т4-05 - 1..6 ', '6,3 ', '13 695 ', '27 426 ', '- ', '41 033 ', '- ', '- '</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>287</v>
       </c>
@@ -12741,8 +13043,12 @@
       <c r="H142" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K142" t="str">
+        <f t="shared" si="11"/>
+        <v>'Т4-06 - 1..6 ', '10', '20 978 ', '28 252 ', '- ', '47 558 ', '- ', '- '</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>290</v>
       </c>
@@ -12767,8 +13073,12 @@
       <c r="H143" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K143" t="str">
+        <f t="shared" si="11"/>
+        <v>'Т4-07 - 1..6 ', '16', '23 169 ', '36 657 ', '41 854 ', '49 943 ', '- ', '- '</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>295</v>
       </c>
@@ -12793,8 +13103,12 @@
       <c r="H144" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K144" t="str">
+        <f t="shared" si="11"/>
+        <v>'Т4-08 - 1..6 ', '20', '42 524 ', '48 424 ', '- ', '- ', '- ', '- '</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>298</v>
       </c>
@@ -12819,8 +13133,12 @@
       <c r="H145" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K145" t="str">
+        <f t="shared" si="11"/>
+        <v>'Т4-09 - 1..6 ', '25', '48 392 ', '48 424 ', '- ', '67 933 ', '97 016 ', '- '</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>302</v>
       </c>
@@ -12845,8 +13163,12 @@
       <c r="H146" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K146" t="str">
+        <f t="shared" si="11"/>
+        <v>'Т4-10 - 1..6 ', '32', '56 291 ', '56 291 ', '71 622 ', '81 381 ', '- ', '- '</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>306</v>
       </c>
@@ -12871,8 +13193,12 @@
       <c r="H147" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K147" t="str">
+        <f t="shared" si="11"/>
+        <v>'Т4-11 - 1..6 ', '40', '58 303 ', '58 303 ', '86 193 ', '90 572 ', '- ', '- '</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>310</v>
       </c>
@@ -12897,8 +13223,12 @@
       <c r="H148" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K148" t="str">
+        <f t="shared" si="11"/>
+        <v>'Т4-12 - 1..6 ', '50', '58 303 ', '58 303 ', '- ', '- ', '- ', '- '</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>311</v>
       </c>
@@ -12923,8 +13253,12 @@
       <c r="H149" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K149" t="str">
+        <f t="shared" si="11"/>
+        <v>'Т4-13 - 1..6 ', '63', '58 303 ', '58 303 ', '93 786 ', '98 165 ', '139 086 ', '- '</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>315</v>
       </c>
@@ -12946,8 +13280,12 @@
       <c r="H150" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K150" t="str">
+        <f t="shared" si="11"/>
+        <v>'Т4-14 - 1..6 ', '70', '- ', '68 830 ', '114 863 ', '- ', '', '- '</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>318</v>
       </c>
@@ -12972,8 +13310,12 @@
       <c r="H151" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K151" t="str">
+        <f t="shared" si="11"/>
+        <v>'Т4-15 - 1..6 ', '80', '- ', '68 830 ', '- ', '132 423 ', '148 963 ', '- '</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>321</v>
       </c>
@@ -12998,8 +13340,12 @@
       <c r="H152" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K152" t="str">
+        <f t="shared" si="11"/>
+        <v>'Т4-16 - 1..6 ', '100', '- ', '130 468 ', '141 337 ', '145 334 ', '148 963 ', '- '</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>325</v>
       </c>
@@ -13024,8 +13370,12 @@
       <c r="H153" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K153" t="str">
+        <f t="shared" si="11"/>
+        <v>'Т4-17 - 1..6 ', '125', '- ', '147 770 ', '- ', '158 039 ', '164 006 ', '- '</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>329</v>
       </c>
@@ -13050,8 +13400,12 @@
       <c r="H154" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K154" t="str">
+        <f t="shared" si="11"/>
+        <v>'Т4-18 - 1..6 ', '150', '- ', '160 559 ', '- ', '- ', '- ', '195 299 '</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>332</v>
       </c>
@@ -13076,8 +13430,12 @@
       <c r="H155" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K155" t="str">
+        <f t="shared" si="11"/>
+        <v>'Т4-19 - 1..6 ', '160', '- ', '160 559 ', '- ', '164 426 ', '- ', '- '</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>334</v>
       </c>
@@ -13102,8 +13460,12 @@
       <c r="H156" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K156" t="str">
+        <f t="shared" si="11"/>
+        <v>'Т4-20 - 1..6 ', '200', '- ', '187 572 ', '- ', '191 439 ', '- ', '- '</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>337</v>
       </c>
@@ -13128,8 +13490,12 @@
       <c r="H157" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K157" t="str">
+        <f t="shared" si="11"/>
+        <v>'Т4-21 - 1..6 ', '250', '- ', '- ', '- ', '235 520 ', '- ', '313 003 '</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>340</v>
       </c>
@@ -13154,8 +13520,12 @@
       <c r="H158" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K158" t="str">
+        <f t="shared" si="11"/>
+        <v>'Т4-22 - 1..6 ', '400', '- ', '- ', '- ', '367 764 ', '- ', '489 560 '</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>0</v>
       </c>
@@ -35553,7 +35923,7 @@
         <v>3035</v>
       </c>
     </row>
-    <row r="1489" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1489" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1489" t="s">
         <v>3036</v>
       </c>
@@ -35561,12 +35931,12 @@
         <v>3037</v>
       </c>
     </row>
-    <row r="1490" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1490" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1490" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="1491" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1491" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1491" t="s">
         <v>3038</v>
       </c>
@@ -35613,431 +35983,432 @@
         <v>500</v>
       </c>
     </row>
-    <row r="1492" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1492" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1492" t="s">
         <v>3039</v>
       </c>
       <c r="B1492" t="s">
         <v>2796</v>
       </c>
-      <c r="C1492" t="s">
-        <v>3030</v>
-      </c>
-      <c r="D1492" t="s">
+      <c r="C1492" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="D1492" s="4" t="s">
         <v>2987</v>
       </c>
-      <c r="E1492" t="s">
+      <c r="E1492" s="4" t="s">
         <v>3040</v>
       </c>
-      <c r="F1492" t="s">
+      <c r="F1492" s="4" t="s">
         <v>3041</v>
       </c>
-      <c r="G1492" t="s">
+      <c r="G1492" s="4" t="s">
         <v>2895</v>
       </c>
-      <c r="H1492" t="s">
+      <c r="H1492" s="4" t="s">
         <v>2858</v>
       </c>
-      <c r="I1492" t="s">
+      <c r="I1492" s="4" t="s">
         <v>2860</v>
       </c>
-      <c r="J1492" t="s">
+      <c r="J1492" s="4" t="s">
         <v>2805</v>
       </c>
-      <c r="K1492" t="s">
+      <c r="K1492" s="4" t="s">
         <v>2888</v>
       </c>
-      <c r="L1492" t="s">
+      <c r="L1492" s="4" t="s">
         <v>2837</v>
       </c>
-      <c r="M1492" t="s">
+      <c r="M1492" s="4" t="s">
         <v>3042</v>
       </c>
-      <c r="N1492" t="s">
+      <c r="N1492" s="4" t="s">
         <v>3043</v>
       </c>
-      <c r="O1492" t="s">
+      <c r="O1492" s="4" t="s">
         <v>2842</v>
       </c>
-      <c r="P1492" t="s">
+      <c r="P1492" s="4" t="s">
         <v>3044</v>
       </c>
-      <c r="Q1492" t="s">
+      <c r="Q1492" s="4" t="s">
         <v>3044</v>
       </c>
     </row>
-    <row r="1493" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1493" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1493" t="s">
         <v>3045</v>
       </c>
       <c r="B1493" t="s">
         <v>2807</v>
       </c>
-      <c r="C1493" t="s">
+      <c r="C1493" s="4" t="s">
         <v>2894</v>
       </c>
-      <c r="D1493" t="s">
+      <c r="D1493" s="4" t="s">
         <v>2829</v>
       </c>
-      <c r="E1493" t="s">
+      <c r="E1493" s="4" t="s">
         <v>3046</v>
       </c>
-      <c r="F1493" t="s">
+      <c r="F1493" s="4" t="s">
         <v>3047</v>
       </c>
-      <c r="G1493" t="s">
+      <c r="G1493" s="4" t="s">
         <v>2922</v>
       </c>
-      <c r="H1493" t="s">
+      <c r="H1493" s="4" t="s">
         <v>2923</v>
       </c>
-      <c r="I1493" t="s">
+      <c r="I1493" s="4" t="s">
         <v>2814</v>
       </c>
-      <c r="J1493" t="s">
+      <c r="J1493" s="4" t="s">
         <v>3048</v>
       </c>
-      <c r="K1493" t="s">
+      <c r="K1493" s="4" t="s">
         <v>2871</v>
       </c>
-      <c r="L1493" t="s">
+      <c r="L1493" s="4" t="s">
         <v>2797</v>
       </c>
-      <c r="M1493" t="s">
+      <c r="M1493" s="4" t="s">
         <v>3049</v>
       </c>
-      <c r="N1493" t="s">
+      <c r="N1493" s="4" t="s">
         <v>3050</v>
       </c>
-      <c r="O1493" t="s">
+      <c r="O1493" s="4" t="s">
         <v>2818</v>
       </c>
-      <c r="P1493" t="s">
+      <c r="P1493" s="4" t="s">
         <v>3051</v>
       </c>
-      <c r="Q1493" t="s">
+      <c r="Q1493" s="4" t="s">
         <v>3052</v>
       </c>
     </row>
-    <row r="1494" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1494" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1494" t="s">
         <v>3053</v>
       </c>
       <c r="B1494" t="s">
         <v>2812</v>
       </c>
-      <c r="C1494" t="s">
+      <c r="C1494" s="4" t="s">
         <v>3054</v>
       </c>
-      <c r="D1494" t="s">
+      <c r="D1494" s="4" t="s">
         <v>3023</v>
       </c>
-      <c r="E1494" t="s">
+      <c r="E1494" s="4" t="s">
         <v>3055</v>
       </c>
-      <c r="F1494" t="s">
+      <c r="F1494" s="4" t="s">
         <v>3056</v>
       </c>
-      <c r="G1494" t="s">
+      <c r="G1494" s="4" t="s">
         <v>3057</v>
       </c>
-      <c r="H1494" t="s">
+      <c r="H1494" s="4" t="s">
         <v>3058</v>
       </c>
-      <c r="I1494" t="s">
+      <c r="I1494" s="4" t="s">
         <v>2888</v>
       </c>
-      <c r="J1494" t="s">
+      <c r="J1494" s="4" t="s">
         <v>2837</v>
       </c>
-      <c r="K1494" t="s">
+      <c r="K1494" s="4" t="s">
         <v>2922</v>
       </c>
-      <c r="L1494" t="s">
+      <c r="L1494" s="4" t="s">
         <v>2816</v>
       </c>
-      <c r="M1494" t="s">
+      <c r="M1494" s="4" t="s">
         <v>3059</v>
       </c>
-      <c r="N1494" t="s">
+      <c r="N1494" s="4" t="s">
         <v>3060</v>
       </c>
-      <c r="O1494" t="s">
+      <c r="O1494" s="4" t="s">
         <v>2854</v>
       </c>
-      <c r="P1494" t="s">
+      <c r="P1494" s="4" t="s">
         <v>2800</v>
       </c>
-      <c r="Q1494" t="s">
+      <c r="Q1494" s="4" t="s">
         <v>2808</v>
       </c>
     </row>
-    <row r="1495" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1495" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1495" t="s">
         <v>3061</v>
       </c>
       <c r="B1495" t="s">
         <v>2802</v>
       </c>
-      <c r="C1495" t="s">
+      <c r="C1495" s="4" t="s">
         <v>3062</v>
       </c>
-      <c r="D1495" t="s">
+      <c r="D1495" s="4" t="s">
         <v>3057</v>
       </c>
-      <c r="E1495" t="s">
+      <c r="E1495" s="4" t="s">
         <v>3063</v>
       </c>
-      <c r="F1495" t="s">
+      <c r="F1495" s="4" t="s">
         <v>3064</v>
       </c>
-      <c r="G1495" t="s">
+      <c r="G1495" s="4" t="s">
         <v>3065</v>
       </c>
-      <c r="H1495" t="s">
+      <c r="H1495" s="4" t="s">
         <v>2926</v>
       </c>
-      <c r="I1495" t="s">
+      <c r="I1495" s="4" t="s">
         <v>3066</v>
       </c>
-      <c r="J1495" t="s">
+      <c r="J1495" s="4" t="s">
         <v>2871</v>
       </c>
-      <c r="K1495" t="s">
+      <c r="K1495" s="4" t="s">
         <v>3067</v>
       </c>
-      <c r="L1495" t="s">
+      <c r="L1495" s="4" t="s">
         <v>2857</v>
       </c>
-      <c r="M1495" t="s">
+      <c r="M1495" s="4" t="s">
         <v>1236</v>
       </c>
-      <c r="N1495" t="s">
+      <c r="N1495" s="4" t="s">
         <v>3068</v>
       </c>
-      <c r="O1495" t="s">
+      <c r="O1495" s="4" t="s">
         <v>3025</v>
       </c>
-      <c r="P1495" t="s">
+      <c r="P1495" s="4" t="s">
         <v>2813</v>
       </c>
-      <c r="Q1495" t="s">
+      <c r="Q1495" s="4" t="s">
         <v>2818</v>
       </c>
-    </row>
-    <row r="1496" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V1495" s="4"/>
+    </row>
+    <row r="1496" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1496" t="s">
         <v>3069</v>
       </c>
       <c r="B1496" t="s">
         <v>2822</v>
       </c>
-      <c r="C1496" t="s">
+      <c r="C1496" s="4" t="s">
         <v>3070</v>
       </c>
-      <c r="D1496" t="s">
+      <c r="D1496" s="4" t="s">
         <v>2894</v>
       </c>
-      <c r="E1496" t="s">
+      <c r="E1496" s="4" t="s">
         <v>3071</v>
       </c>
-      <c r="F1496" t="s">
+      <c r="F1496" s="4" t="s">
         <v>3072</v>
       </c>
-      <c r="G1496" t="s">
+      <c r="G1496" s="4" t="s">
         <v>3073</v>
       </c>
-      <c r="H1496" t="s">
+      <c r="H1496" s="4" t="s">
         <v>3067</v>
       </c>
-      <c r="I1496" t="s">
+      <c r="I1496" s="4" t="s">
         <v>2898</v>
       </c>
-      <c r="J1496" t="s">
+      <c r="J1496" s="4" t="s">
         <v>2809</v>
       </c>
-      <c r="K1496" t="s">
+      <c r="K1496" s="4" t="s">
         <v>2856</v>
       </c>
-      <c r="L1496" t="s">
+      <c r="L1496" s="4" t="s">
         <v>2860</v>
       </c>
-      <c r="M1496" t="s">
+      <c r="M1496" s="4" t="s">
         <v>3074</v>
       </c>
-      <c r="N1496" t="s">
+      <c r="N1496" s="4" t="s">
         <v>3046</v>
       </c>
-      <c r="O1496" t="s">
+      <c r="O1496" s="4" t="s">
         <v>3023</v>
       </c>
-      <c r="P1496" t="s">
+      <c r="P1496" s="4" t="s">
         <v>2823</v>
       </c>
-      <c r="Q1496" t="s">
+      <c r="Q1496" s="4" t="s">
         <v>2837</v>
       </c>
     </row>
-    <row r="1497" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1497" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1497" t="s">
         <v>3075</v>
       </c>
       <c r="B1497" t="s">
         <v>2825</v>
       </c>
-      <c r="C1497" t="s">
+      <c r="C1497" s="4" t="s">
         <v>3043</v>
       </c>
-      <c r="D1497" t="s">
+      <c r="D1497" s="4" t="s">
         <v>3058</v>
       </c>
-      <c r="E1497" t="s">
+      <c r="E1497" s="4" t="s">
         <v>3076</v>
       </c>
-      <c r="F1497" t="s">
+      <c r="F1497" s="4" t="s">
         <v>3024</v>
       </c>
-      <c r="G1497" t="s">
+      <c r="G1497" s="4" t="s">
         <v>3077</v>
       </c>
-      <c r="H1497" t="s">
+      <c r="H1497" s="4" t="s">
         <v>3070</v>
       </c>
-      <c r="I1497" t="s">
+      <c r="I1497" s="4" t="s">
         <v>3078</v>
       </c>
-      <c r="J1497" t="s">
+      <c r="J1497" s="4" t="s">
         <v>2818</v>
       </c>
-      <c r="K1497" t="s">
+      <c r="K1497" s="4" t="s">
         <v>2945</v>
       </c>
-      <c r="L1497" t="s">
+      <c r="L1497" s="4" t="s">
         <v>2845</v>
       </c>
-      <c r="M1497" t="s">
+      <c r="M1497" s="4" t="s">
         <v>3079</v>
       </c>
-      <c r="N1497" t="s">
+      <c r="N1497" s="4" t="s">
         <v>3080</v>
       </c>
-      <c r="O1497" t="s">
+      <c r="O1497" s="4" t="s">
         <v>2946</v>
       </c>
-      <c r="P1497" t="s">
+      <c r="P1497" s="4" t="s">
         <v>2816</v>
       </c>
-      <c r="Q1497" t="s">
+      <c r="Q1497" s="4" t="s">
         <v>2819</v>
       </c>
     </row>
-    <row r="1498" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1498" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1498" t="s">
         <v>3081</v>
       </c>
       <c r="B1498" t="s">
         <v>2831</v>
       </c>
-      <c r="C1498" t="s">
+      <c r="C1498" s="4" t="s">
         <v>3082</v>
       </c>
-      <c r="D1498" t="s">
+      <c r="D1498" s="4" t="s">
         <v>2925</v>
       </c>
-      <c r="E1498" t="s">
+      <c r="E1498" s="4" t="s">
         <v>3083</v>
       </c>
-      <c r="F1498" t="s">
+      <c r="F1498" s="4" t="s">
         <v>2947</v>
       </c>
-      <c r="G1498" t="s">
+      <c r="G1498" s="4" t="s">
         <v>3058</v>
       </c>
-      <c r="H1498" t="s">
+      <c r="H1498" s="4" t="s">
         <v>3030</v>
       </c>
-      <c r="I1498" t="s">
+      <c r="I1498" s="4" t="s">
         <v>2845</v>
       </c>
-      <c r="J1498" t="s">
+      <c r="J1498" s="4" t="s">
         <v>2837</v>
       </c>
-      <c r="K1498" t="s">
+      <c r="K1498" s="4" t="s">
         <v>3023</v>
       </c>
-      <c r="L1498" t="s">
+      <c r="L1498" s="4" t="s">
         <v>2819</v>
       </c>
-      <c r="M1498" t="s">
+      <c r="M1498" s="4" t="s">
         <v>3084</v>
       </c>
-      <c r="N1498" t="s">
+      <c r="N1498" s="4" t="s">
         <v>3085</v>
       </c>
-      <c r="O1498" t="s">
+      <c r="O1498" s="4" t="s">
         <v>2923</v>
       </c>
-      <c r="P1498" t="s">
+      <c r="P1498" s="4" t="s">
         <v>2808</v>
       </c>
-      <c r="Q1498" t="s">
+      <c r="Q1498" s="4" t="s">
         <v>2810</v>
       </c>
     </row>
-    <row r="1499" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1499" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1499" t="s">
         <v>3086</v>
       </c>
       <c r="B1499" t="s">
         <v>2834</v>
       </c>
-      <c r="C1499" t="s">
+      <c r="C1499" s="4" t="s">
         <v>3067</v>
       </c>
-      <c r="D1499" t="s">
+      <c r="D1499" s="4" t="s">
         <v>2923</v>
       </c>
-      <c r="E1499" t="s">
+      <c r="E1499" s="4" t="s">
         <v>3060</v>
       </c>
-      <c r="F1499" t="s">
+      <c r="F1499" s="4" t="s">
         <v>3085</v>
       </c>
-      <c r="G1499" t="s">
+      <c r="G1499" s="4" t="s">
         <v>2925</v>
       </c>
-      <c r="H1499" t="s">
+      <c r="H1499" s="4" t="s">
         <v>3023</v>
       </c>
-      <c r="I1499" t="s">
+      <c r="I1499" s="4" t="s">
         <v>2813</v>
       </c>
-      <c r="J1499" t="s">
+      <c r="J1499" s="4" t="s">
         <v>2798</v>
       </c>
-      <c r="K1499" t="s">
+      <c r="K1499" s="4" t="s">
         <v>2898</v>
       </c>
-      <c r="L1499" t="s">
+      <c r="L1499" s="4" t="s">
         <v>2809</v>
       </c>
-      <c r="M1499" t="s">
+      <c r="M1499" s="4" t="s">
         <v>2846</v>
       </c>
-      <c r="N1499" t="s">
+      <c r="N1499" s="4" t="s">
         <v>2948</v>
       </c>
-      <c r="O1499" t="s">
+      <c r="O1499" s="4" t="s">
         <v>2818</v>
       </c>
-      <c r="P1499" t="s">
+      <c r="P1499" s="4" t="s">
         <v>3044</v>
       </c>
-      <c r="Q1499" t="s">
+      <c r="Q1499" s="4" t="s">
         <v>3044</v>
       </c>
     </row>
-    <row r="1500" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1500" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1500" t="s">
         <v>3087</v>
       </c>
@@ -36090,7 +36461,7 @@
         <v>2804</v>
       </c>
     </row>
-    <row r="1501" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1501" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1501" t="s">
         <v>3089</v>
       </c>
@@ -36143,7 +36514,7 @@
         <v>2837</v>
       </c>
     </row>
-    <row r="1502" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1502" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1502" t="s">
         <v>3092</v>
       </c>
@@ -36196,7 +36567,7 @@
         <v>2894</v>
       </c>
     </row>
-    <row r="1503" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1503" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1503" t="s">
         <v>3101</v>
       </c>
@@ -36249,7 +36620,7 @@
         <v>2803</v>
       </c>
     </row>
-    <row r="1504" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1504" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1504" t="s">
         <v>3105</v>
       </c>
@@ -37034,7 +37405,7 @@
       <c r="N1518" t="s">
         <v>3140</v>
       </c>
-      <c r="O1518" t="s">
+      <c r="O1518" s="4" t="s">
         <v>3058</v>
       </c>
       <c r="P1518" t="s">
@@ -39684,13 +40055,13 @@
       <c r="N1568" t="s">
         <v>2844</v>
       </c>
-      <c r="O1568" t="s">
+      <c r="O1568" s="4" t="s">
         <v>2827</v>
       </c>
-      <c r="P1568" t="s">
+      <c r="P1568" s="4" t="s">
         <v>2798</v>
       </c>
-      <c r="Q1568" t="s">
+      <c r="Q1568" s="4" t="s">
         <v>2797</v>
       </c>
     </row>
@@ -39737,13 +40108,13 @@
       <c r="N1569" t="s">
         <v>3155</v>
       </c>
-      <c r="O1569" t="s">
+      <c r="O1569" s="4" t="s">
         <v>3023</v>
       </c>
-      <c r="P1569" t="s">
+      <c r="P1569" s="4" t="s">
         <v>2799</v>
       </c>
-      <c r="Q1569" t="s">
+      <c r="Q1569" s="4" t="s">
         <v>2823</v>
       </c>
     </row>
@@ -39790,13 +40161,13 @@
       <c r="N1570" t="s">
         <v>3153</v>
       </c>
-      <c r="O1570" t="s">
+      <c r="O1570" s="4" t="s">
         <v>3030</v>
       </c>
-      <c r="P1570" t="s">
+      <c r="P1570" s="4" t="s">
         <v>2815</v>
       </c>
-      <c r="Q1570" t="s">
+      <c r="Q1570" s="4" t="s">
         <v>2813</v>
       </c>
     </row>
@@ -39843,13 +40214,13 @@
       <c r="N1571" t="s">
         <v>3083</v>
       </c>
-      <c r="O1571" t="s">
+      <c r="O1571" s="4" t="s">
         <v>3043</v>
       </c>
-      <c r="P1571" t="s">
+      <c r="P1571" s="4" t="s">
         <v>3057</v>
       </c>
-      <c r="Q1571" t="s">
+      <c r="Q1571" s="4" t="s">
         <v>3057</v>
       </c>
     </row>
@@ -39896,13 +40267,13 @@
       <c r="N1572" t="s">
         <v>3073</v>
       </c>
-      <c r="O1572" t="s">
+      <c r="O1572" s="4" t="s">
         <v>2857</v>
       </c>
-      <c r="P1572" t="s">
+      <c r="P1572" s="4" t="s">
         <v>2816</v>
       </c>
-      <c r="Q1572" t="s">
+      <c r="Q1572" s="4" t="s">
         <v>2816</v>
       </c>
     </row>
@@ -39949,13 +40320,13 @@
       <c r="N1573" t="s">
         <v>3246</v>
       </c>
-      <c r="O1573" t="s">
+      <c r="O1573" s="4" t="s">
         <v>3247</v>
       </c>
-      <c r="P1573" t="s">
+      <c r="P1573" s="4" t="s">
         <v>3175</v>
       </c>
-      <c r="Q1573" t="s">
+      <c r="Q1573" s="4" t="s">
         <v>3059</v>
       </c>
     </row>
@@ -40002,13 +40373,13 @@
       <c r="N1574" t="s">
         <v>3043</v>
       </c>
-      <c r="O1574" t="s">
+      <c r="O1574" s="4" t="s">
         <v>3022</v>
       </c>
-      <c r="P1574" t="s">
+      <c r="P1574" s="4" t="s">
         <v>2845</v>
       </c>
-      <c r="Q1574" t="s">
+      <c r="Q1574" s="4" t="s">
         <v>2888</v>
       </c>
     </row>
@@ -40055,13 +40426,13 @@
       <c r="N1575" t="s">
         <v>3067</v>
       </c>
-      <c r="O1575" t="s">
+      <c r="O1575" s="4" t="s">
         <v>2860</v>
       </c>
-      <c r="P1575" t="s">
+      <c r="P1575" s="4" t="s">
         <v>2798</v>
       </c>
-      <c r="Q1575" t="s">
+      <c r="Q1575" s="4" t="s">
         <v>2798</v>
       </c>
     </row>
@@ -40108,14 +40479,14 @@
       <c r="N1576" t="s">
         <v>3067</v>
       </c>
-      <c r="O1576" t="s">
+      <c r="O1576" s="4" t="s">
         <v>2860</v>
       </c>
-      <c r="P1576" t="s">
+      <c r="P1576" s="4" t="s">
         <v>2798</v>
       </c>
-      <c r="Q1576" t="s">
-        <v>2798</v>
+      <c r="Q1576" s="5">
+        <v>0.98</v>
       </c>
     </row>
     <row r="1578" spans="1:17" x14ac:dyDescent="0.25">
@@ -40176,8 +40547,8 @@
       <c r="C1584" t="s">
         <v>860</v>
       </c>
-      <c r="D1584" s="1">
-        <v>44002</v>
+      <c r="D1584" s="3" t="s">
+        <v>3270</v>
       </c>
       <c r="E1584">
         <v>35</v>
